--- a/docs/PTA2_DDC_80/PTA2_DDC_80_02.08.24_output.xlsx
+++ b/docs/PTA2_DDC_80/PTA2_DDC_80_02.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731780848.3036504</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731780861.045833</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731780848.3036504.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731780861.045833.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>285.6</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>285.95</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.3499999999999659</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731780863.0340183</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731780865.121309</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731780863.0340183.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731780865.121309.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>286.92</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>286.15</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.7700000000000387</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -643,95 +671,107 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731780870.8943286</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731780870.8943286.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731780870.8943286.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>285.77</v>
       </c>
-      <c r="J5" t="n">
-        <v>285.77</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>286.24</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.4700000000000273</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731780877.1031375</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731780887.4944916</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731780877.1031375.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731780887.4944916.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>131.41</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>131.33</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.07999999999998408</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731780892.7533696</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731780894.0873845</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731780892.7533696.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731780894.0873845.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>130.74</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>131.27</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.5300000000000011</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731780894.1023455</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731780894.4722366</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731780894.1023455.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731780894.4722366.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>131.27</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>131.02</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.25</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731780897.6320508</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731780898.5009198</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731780897.6320508.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731780898.5009198.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6657.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6689.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>32</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731780901.6926472</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731780911.1687186</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731780901.6926472.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731780911.1687186.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6650.5</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6662.5</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>12</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731780913.2496905</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731780915.8659751</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731780913.2496905.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731780915.8659751.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6601</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6599.5</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-1.5</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731780918.5987787</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731780919.2165322</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731780918.5987787.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731780919.2165322.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6601.5</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6596</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>5.5</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1051,51 +1127,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731780919.2415135</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731780919.281706</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731780919.2415135.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731780919.281706.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6596</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6601.5</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>5.5</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1103,51 +1185,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731780929.4330778</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731780930.8355253</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731780929.4330778.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731780930.8355253.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>504.1</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>506.95</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>2.849999999999966</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -1155,51 +1243,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731780937.847452</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731780938.1792715</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731780937.847452.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731780938.1792715.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>504.25</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>504.6</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.3500000000000227</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731780938.763861</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731780939.2102492</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731780938.763861.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731780939.2102492.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>505.2</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>504.2</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731780942.5222003</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731780944.4428842</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731780942.5222003.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731780944.4428842.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>228.3</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>230.15</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>1.849999999999994</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.8099999999999999</v>
       </c>
     </row>
@@ -1311,51 +1417,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731780950.2044451</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731780954.028436</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731780950.2044451.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731780954.028436.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>227.79</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>228.97</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>1.180000000000007</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -1363,51 +1475,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731780955.7393687</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731780958.324347</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731780955.7393687.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731780958.324347.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>230.28</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>229.66</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.6200000000000045</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1415,51 +1533,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731780962.8817902</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731780964.4422207</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731780962.8817902.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731780964.4422207.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>230.57</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>230.07</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.5</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -1467,51 +1591,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731780964.4567122</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731780964.5827425</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731780964.4567122.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731780964.5827425.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>230.07</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>230.37</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.3000000000000114</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1519,51 +1649,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731780965.2373466</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731780965.785507</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731780965.2373466.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731780965.785507.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>230.16</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>230.24</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.08000000000001251</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1571,51 +1707,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731780970.62208</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731780981.00778</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731780970.62208.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731780981.00778.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1026</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1026.6</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.5999999999999091</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1623,51 +1765,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731780986.9938056</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731780987.4846766</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731780986.9938056.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731780987.4846766.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1018</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1020.4</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>2.399999999999977</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -1675,51 +1823,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731780988.0491607</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731780989.3563993</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731780988.0491607.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731780989.3563993.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1018</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1019.8</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>1.799999999999955</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1727,51 +1881,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731780989.477666</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731780990.1908612</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731780989.477666.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731780990.1908612.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1021</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1017.2</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>3.799999999999955</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -1779,95 +1939,107 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731780992.9641943</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731780992.9641943.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731780992.9641943.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>11.866</v>
       </c>
-      <c r="J27" t="n">
-        <v>11.866</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>11.869</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.003000000000000114</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731780994.6699662</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731780996.4705462</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731780994.6699662.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731780996.4705462.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>128.18</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>128.58</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.4000000000000057</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1875,51 +2047,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731780998.0331333</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731781003.8451333</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731780998.0331333.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731781003.8451333.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>128.04</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>128.18</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.1400000000000148</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1927,51 +2105,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731781009.735395</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731781010.7063224</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731781009.735395.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731781010.7063224.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>128.72</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>128</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.7199999999999989</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -1979,95 +2163,107 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731781018.090157</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731781018.090157.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731781018.090157.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>127.78</v>
       </c>
-      <c r="J31" t="n">
-        <v>127.78</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>127.7</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.07999999999999829</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731781022.896665</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731781031.6019917</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731781022.896665.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731781031.6019917.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>163.86</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>165.28</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>1.419999999999987</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.8699999999999999</v>
       </c>
     </row>
@@ -2075,51 +2271,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731781032.9200735</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731781035.33179</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731781032.9200735.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731781035.33179.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>165.72</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>165.1</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.6200000000000045</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -2127,51 +2329,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731781038.7521098</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731781040.4663684</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731781038.7521098.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731781040.4663684.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>165.48</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>165.06</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.4199999999999875</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -2179,95 +2387,107 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731781041.977295</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731781041.977295.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731781041.977295.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>165.66</v>
       </c>
-      <c r="J35" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>165.7</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0.03999999999999204</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731781054.0877466</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731781056.901389</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731781054.0877466.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731781056.901389.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>50.27</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>50.4</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.1299999999999955</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -2275,51 +2495,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731781057.8470192</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731781058.4579835</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731781057.8470192.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731781058.4579835.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>50.55</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>50.36</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -2327,51 +2553,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731781062.2688339</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731781066.0484037</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731781062.2688339.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731781066.0484037.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>50.345</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>50.395</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.05000000000000426</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -2379,51 +2611,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731781078.3154528</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731781080.3405116</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731781078.3154528.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731781080.3405116.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1397.6</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1403.6</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>6</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -2431,51 +2669,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731781080.8826752</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731781082.3557706</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731781080.8826752.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731781082.3557706.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1411.4</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1403</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>8.400000000000091</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -2483,51 +2727,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731781082.9936</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731781085.7926831</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731781082.9936.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731781085.7926831.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1393.2</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1400</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>6.799999999999955</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -2535,51 +2785,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731781085.880405</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731781087.9157581</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731781085.880405.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731781087.9157581.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1400.2</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>1399</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>1.200000000000045</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -2587,51 +2843,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731781091.2969944</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731781092.7110295</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731781091.2969944.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731781092.7110295.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>61.18</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>60.68</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.5</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.8200000000000001</v>
       </c>
     </row>
@@ -2639,51 +2901,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731781098.0772154</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731781103.156909</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731781098.0772154.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731781103.156909.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>60.14</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>60.58</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.4399999999999977</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.73</v>
       </c>
     </row>
@@ -2691,51 +2959,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731781108.563081</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731781110.0106266</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731781108.563081.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731781110.0106266.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>60.21</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>60.16</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.05000000000000426</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2743,51 +3017,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731781110.2782822</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731781111.8965094</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731781110.2782822.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731781111.8965094.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>60.25</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>60.29</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.03999999999999915</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -2795,95 +3075,107 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731781113.71996</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731781113.71996.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731781113.71996.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>97.56999999999999</v>
       </c>
-      <c r="J47" t="n">
-        <v>97.56999999999999</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>97.59999999999999</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-0.03000000000000114</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731781119.425763</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731781128.025809</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/SELG1731781119.425763.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/SELG1731781128.025809.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>56.63</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>57.16</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.529999999999994</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.9400000000000001</v>
       </c>
     </row>
@@ -2891,51 +3183,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731781134.9491847</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731781135.725142</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/SELG1731781134.9491847.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/SELG1731781135.725142.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>56.68</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>56.89</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.2100000000000009</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -2943,51 +3241,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731781136.160594</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731781136.33908</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/SELG1731781136.160594.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/SELG1731781136.33908.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>57.07</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>56.88</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -2995,43 +3299,49 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731781137.8834848</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731781137.8834848.png</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731781137.8834848.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>57.13</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>57.13</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3039,51 +3349,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731781151.5784082</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731781153.6449008</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731781151.5784082.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731781153.6449008.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>144.94</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>145.36</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.4200000000000159</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -3091,51 +3407,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731781157.9960797</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731781159.703195</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731781157.9960797.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731781159.703195.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>145.58</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>145.22</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.3600000000000136</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -3143,51 +3465,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731781164.4267547</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731781173.1731553</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731781164.4267547.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731781173.1731553.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>20.645</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>20.888</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.2430000000000021</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>1.18</v>
       </c>
     </row>
@@ -3195,51 +3523,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731781174.5808365</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731781175.5028188</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731781174.5808365.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731781175.5028188.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>21.113</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>20.849</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.2639999999999993</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>1.25</v>
       </c>
     </row>
@@ -3247,95 +3581,107 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731781180.3616498</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731781180.3616498.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731781180.3616498.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>20.789</v>
       </c>
-      <c r="J56" t="n">
-        <v>20.789</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>20.902</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.1129999999999995</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.54</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731781183.383178</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731781184.3324118</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731781183.383178.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731781184.3324118.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>676</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>677.55</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>1.549999999999955</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -3343,51 +3689,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731781187.2081478</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731781196.9380472</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731781187.2081478.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731781196.9380472.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>672.65</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>670.2</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-2.449999999999932</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -3395,95 +3747,107 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731781202.5247364</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731781202.5247364.png</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731781202.5247364.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>674</v>
       </c>
-      <c r="J59" t="n">
-        <v>674</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>677.45</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-3.450000000000045</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.51</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731781205.8803487</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731781208.6053903</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/FEES1731781205.8803487.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/FEES1731781208.6053903.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>0.09868</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>0.09962000000000001</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.0009400000000000103</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.95</v>
       </c>
     </row>
@@ -3491,51 +3855,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731781209.0010724</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731781212.639612</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/FEES1731781209.0010724.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/FEES1731781212.639612.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>0.10018</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>0.09968</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.0005000000000000004</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -3543,51 +3913,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731781217.9336267</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731781218.464842</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/FEES1731781217.9336267.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/FEES1731781218.464842.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>0.09864000000000001</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>0.09976</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.001119999999999996</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>1.14</v>
       </c>
     </row>
@@ -3595,51 +3971,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731781224.3354478</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731781225.640342</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/FEES1731781224.3354478.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/FEES1731781225.640342.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>0.09882000000000001</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>0.099</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.0001799999999999996</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -3647,51 +4029,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731781227.8113823</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731781236.9764872</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731781227.8113823.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731781236.9764872.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>0.5979</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>0.5995</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.001600000000000046</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -3699,51 +4087,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731781238.0572677</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731781243.2580407</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731781238.0572677.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731781243.2580407.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>0.6021000000000001</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>0.6004</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.001700000000000035</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -3751,51 +4145,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731781247.874314</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731781248.1130822</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731781247.874314.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731781248.1130822.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>0.6031000000000001</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>0.6019</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.00120000000000009</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -3803,51 +4203,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731781248.8774438</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731781249.4227946</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/MXI1731781248.8774438.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/MXI1731781249.4227946.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>2981.65</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>2990</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>8.349999999999909</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -3855,51 +4261,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731781252.243776</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731781255.5525188</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/MXI1731781252.243776.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/MXI1731781255.5525188.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>2981</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>2976.1</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-4.900000000000091</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -3907,51 +4319,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731781256.632023</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731781258.1575966</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/MXI1731781256.632023.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/MXI1731781258.1575966.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>2966</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>2967.4</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>1.400000000000091</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -3959,51 +4377,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731781259.497257</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731781260.2678518</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/MXI1731781259.497257.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/MXI1731781260.2678518.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>2955.5</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>2961.95</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>6.449999999999818</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -4011,51 +4435,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731781261.1865563</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731781261.7875931</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/MXI1731781261.1865563.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/MXI1731781261.7875931.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>2969.3</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>2963.3</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>6</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -4063,51 +4493,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731781262.7520568</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731781264.1425693</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/MXI1731781262.7520568.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/MXI1731781264.1425693.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>2977.5</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>2975</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>2.5</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -4115,51 +4551,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731781264.7484338</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731781267.8040988</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/MXI1731781264.7484338.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/MXI1731781267.8040988.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>2968.95</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>2963.8</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-5.149999999999636</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -4167,51 +4609,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731781276.9395158</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731781285.3154078</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731781276.9395158.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731781285.3154078.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>34.235</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>34.45</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.2150000000000034</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.63</v>
       </c>
     </row>
@@ -4219,51 +4667,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731781286.9040964</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731781287.8443491</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731781286.9040964.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731781287.8443491.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>34.61</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>34.255</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.3549999999999969</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>1.03</v>
       </c>
     </row>
@@ -4479,19 +4933,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.260000000000019</v>
+        <v>1.340000000000018</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3150000000000048</v>
+        <v>0.3350000000000044</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9799999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="F9" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="10">
@@ -4523,16 +4977,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.45999999999998</v>
+        <v>2.419999999999987</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6149999999999949</v>
+        <v>0.6049999999999969</v>
       </c>
       <c r="E11" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="F11" t="n">
         <v>0.37</v>
@@ -4545,19 +4999,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.8999999999999773</v>
+        <v>-4.350000000000023</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2999999999999924</v>
+        <v>-1.450000000000008</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.13</v>
+        <v>-0.64</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.04</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="13">
@@ -4567,19 +5021,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.120000000000005</v>
+        <v>0.6499999999999773</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3733333333333348</v>
+        <v>0.2166666666666591</v>
       </c>
       <c r="E13" t="n">
-        <v>0.39</v>
+        <v>0.23</v>
       </c>
       <c r="F13" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="14">
@@ -4611,19 +5065,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5070000000000014</v>
+        <v>0.3940000000000019</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1690000000000005</v>
+        <v>0.131333333333334</v>
       </c>
       <c r="E15" t="n">
-        <v>2.43</v>
+        <v>1.89</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="16">
@@ -4743,19 +5197,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-0.003000000000000114</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-0.003000000000000114</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="22">
@@ -4765,19 +5219,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-0.03000000000000114</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-0.03000000000000114</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="23">
